--- a/lab25/lab25/sort test.xlsx
+++ b/lab25/lab25/sort test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
   <si>
     <t>dict0.txt</t>
   </si>
@@ -42,48 +42,18 @@
     <t>Selection</t>
   </si>
   <si>
-    <t>0,000 000 7</t>
-  </si>
-  <si>
-    <t>0,000 008</t>
-  </si>
-  <si>
     <t>Bubble</t>
   </si>
   <si>
-    <t>0,000 001 2</t>
-  </si>
-  <si>
-    <t>0,000 022</t>
-  </si>
-  <si>
     <t>Insert</t>
   </si>
   <si>
-    <t>0,000 000 8</t>
-  </si>
-  <si>
-    <t>0,000 005</t>
-  </si>
-  <si>
     <t>Qsort</t>
   </si>
   <si>
-    <t>0,000 003 8</t>
-  </si>
-  <si>
-    <t>0,000 019</t>
-  </si>
-  <si>
     <t>Merge</t>
   </si>
   <si>
-    <t>0,000 002 0</t>
-  </si>
-  <si>
-    <t>0,000 009</t>
-  </si>
-  <si>
     <t>dict0a.txt</t>
   </si>
   <si>
@@ -114,18 +84,6 @@
     <t>dict4b.txt</t>
   </si>
   <si>
-    <t>0,000 010</t>
-  </si>
-  <si>
-    <t>0,000 011</t>
-  </si>
-  <si>
-    <t>0,000 000 5</t>
-  </si>
-  <si>
-    <t>0,000 055</t>
-  </si>
-  <si>
     <t>Студент</t>
   </si>
   <si>
@@ -162,9 +120,6 @@
     <t>Фактические трудозатраты</t>
   </si>
   <si>
-    <t>75 минут</t>
-  </si>
-  <si>
     <t>Сложности</t>
   </si>
   <si>
@@ -196,6 +151,291 @@
   </si>
   <si>
     <t>642 singlecore 4861 multicore</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>0.0000004080</t>
+  </si>
+  <si>
+    <t>0.0000010880</t>
+  </si>
+  <si>
+    <t>0.0000010210</t>
+  </si>
+  <si>
+    <t>0.0000020890</t>
+  </si>
+  <si>
+    <t>0.0000005420</t>
+  </si>
+  <si>
+    <t>0.0000004370</t>
+  </si>
+  <si>
+    <t>0.0000022080</t>
+  </si>
+  <si>
+    <t>0.0000036480</t>
+  </si>
+  <si>
+    <t>0.0000110530</t>
+  </si>
+  <si>
+    <t>0.0000111600</t>
+  </si>
+  <si>
+    <t>0.0000135280</t>
+  </si>
+  <si>
+    <t>0.0000049160</t>
+  </si>
+  <si>
+    <t>0.0145300000</t>
+  </si>
+  <si>
+    <t>0.1058200000</t>
+  </si>
+  <si>
+    <t>0.0743200000</t>
+  </si>
+  <si>
+    <t>0.0016700000</t>
+  </si>
+  <si>
+    <t>0.0009800000</t>
+  </si>
+  <si>
+    <t>0.0012200000</t>
+  </si>
+  <si>
+    <t>0.1575000000</t>
+  </si>
+  <si>
+    <t>1.1858800000</t>
+  </si>
+  <si>
+    <t>0.8045800000</t>
+  </si>
+  <si>
+    <t>0.0065100000</t>
+  </si>
+  <si>
+    <t>0.0038800000</t>
+  </si>
+  <si>
+    <t>0.0054400000</t>
+  </si>
+  <si>
+    <t>0.6481000000</t>
+  </si>
+  <si>
+    <t>4.9770000000</t>
+  </si>
+  <si>
+    <t>3.3686000000</t>
+  </si>
+  <si>
+    <t>0.0139000000</t>
+  </si>
+  <si>
+    <t>0.0087000000</t>
+  </si>
+  <si>
+    <t>0.0135000000</t>
+  </si>
+  <si>
+    <t>0.0000002610</t>
+  </si>
+  <si>
+    <t>0.0000002500</t>
+  </si>
+  <si>
+    <t>0.0000000720</t>
+  </si>
+  <si>
+    <t>0.0000002210</t>
+  </si>
+  <si>
+    <t>0.0000004760</t>
+  </si>
+  <si>
+    <t>0.0000001540</t>
+  </si>
+  <si>
+    <t>0.0000042920</t>
+  </si>
+  <si>
+    <t>0.0000042530</t>
+  </si>
+  <si>
+    <t>0.0000003330</t>
+  </si>
+  <si>
+    <t>0.0000012560</t>
+  </si>
+  <si>
+    <t>0.0000033490</t>
+  </si>
+  <si>
+    <t>0.0000008930</t>
+  </si>
+  <si>
+    <t>ОВЕРДОФИГА</t>
+  </si>
+  <si>
+    <t>хрен ты через несколько разных функций пройдёшься в Си</t>
+  </si>
+  <si>
+    <t>Merge Sort таки самая крутая сортировка</t>
+  </si>
+  <si>
+    <t>0.0134080000</t>
+  </si>
+  <si>
+    <t>0.0245660000</t>
+  </si>
+  <si>
+    <t>0.0000350000</t>
+  </si>
+  <si>
+    <t>0.0001990000</t>
+  </si>
+  <si>
+    <t>0.0007350000</t>
+  </si>
+  <si>
+    <t>0.0001570000</t>
+  </si>
+  <si>
+    <t>0.1465400000</t>
+  </si>
+  <si>
+    <t>0.4164900000</t>
+  </si>
+  <si>
+    <t>0.0001900000</t>
+  </si>
+  <si>
+    <t>0.0008800000</t>
+  </si>
+  <si>
+    <t>0.0029800000</t>
+  </si>
+  <si>
+    <t>0.0006800000</t>
+  </si>
+  <si>
+    <t>0.5992000000</t>
+  </si>
+  <si>
+    <t>1.8761000000</t>
+  </si>
+  <si>
+    <t>0.0009000000</t>
+  </si>
+  <si>
+    <t>0.0038000000</t>
+  </si>
+  <si>
+    <t>0.0067000000</t>
+  </si>
+  <si>
+    <t>0.0020000000</t>
+  </si>
+  <si>
+    <t>0.0000003880</t>
+  </si>
+  <si>
+    <t>0.0000018520</t>
+  </si>
+  <si>
+    <t>0.0000018730</t>
+  </si>
+  <si>
+    <t>0.0000014540</t>
+  </si>
+  <si>
+    <t>0.0000004670</t>
+  </si>
+  <si>
+    <t>0.0000003670</t>
+  </si>
+  <si>
+    <t>0.0000050060</t>
+  </si>
+  <si>
+    <t>0.0000343730</t>
+  </si>
+  <si>
+    <t>0.0000342420</t>
+  </si>
+  <si>
+    <t>0.0000054120</t>
+  </si>
+  <si>
+    <t>0.0000033240</t>
+  </si>
+  <si>
+    <t>0.0000021890</t>
+  </si>
+  <si>
+    <t>shellsort приятно удивил скоростью схожей с quicksort но быстрее на мелких массивах</t>
+  </si>
+  <si>
+    <t>0.0208700000</t>
+  </si>
+  <si>
+    <t>0.1426400000</t>
+  </si>
+  <si>
+    <t>0.1427000000</t>
+  </si>
+  <si>
+    <t>0.0004300000</t>
+  </si>
+  <si>
+    <t>0.0007300000</t>
+  </si>
+  <si>
+    <t>0.0006100000</t>
+  </si>
+  <si>
+    <t>0.2876000000</t>
+  </si>
+  <si>
+    <t>1.5914000000</t>
+  </si>
+  <si>
+    <t>1.5884000000</t>
+  </si>
+  <si>
+    <t>0.0016000000</t>
+  </si>
+  <si>
+    <t>0.0029000000</t>
+  </si>
+  <si>
+    <t>0.0023000000</t>
+  </si>
+  <si>
+    <t>0.8719000000</t>
+  </si>
+  <si>
+    <t>6.5727000000</t>
+  </si>
+  <si>
+    <t>6.6010000000</t>
+  </si>
+  <si>
+    <t>0.0052000000</t>
+  </si>
+  <si>
+    <t>0.0066000000</t>
+  </si>
+  <si>
+    <t>0.0056000000</t>
   </si>
 </sst>
 </file>
@@ -355,49 +595,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381398</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>23150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="crystaldiskmark.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6156960" y="152400"/>
-          <a:ext cx="4587638" cy="3345470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,96 +896,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
         <v>45626</v>
@@ -796,44 +993,59 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -859,99 +1071,119 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.5629999999999999</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.158</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.7249999999999996</v>
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2.7330000000000001</v>
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.7E-2</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2.4E-2</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -961,33 +1193,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -995,70 +1228,120 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.4</v>
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.0999999999999996</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,33 +1350,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="2" max="6" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -1101,70 +1385,120 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.3</v>
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.5</v>
+        <v>114</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab25/lab25/sort test.xlsx
+++ b/lab25/lab25/sort test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Сводная" sheetId="4" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>AMD Ryzen 5 5600 4650 MHz singlecore | 4450 MHz multicore</t>
   </si>
   <si>
-    <t>16,0 ГБ 3600 MT/s</t>
-  </si>
-  <si>
     <t>WDC  WDS500G2B0A-00SM50 500,1 GB</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>0.0056000000</t>
+  </si>
+  <si>
+    <t>32 ГБ 3600 MT/s 2  двухранковых планки</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -946,15 +946,15 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -967,7 +967,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -975,7 +975,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -996,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -1016,12 +1016,12 @@
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -1071,19 +1071,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1091,19 +1091,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1111,19 +1111,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1131,19 +1131,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1151,39 +1151,39 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1228,19 +1228,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1248,19 +1248,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1268,19 +1268,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1288,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1308,39 +1308,39 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1385,19 +1385,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -1405,19 +1405,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1425,19 +1425,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1445,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1">
@@ -1465,39 +1465,39 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
